--- a/Inputs/Pacific_Cross_Firstcare/benefits.xlsx
+++ b/Inputs/Pacific_Cross_Firstcare/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -43,15 +43,13 @@
     <t xml:space="preserve">Geographical Coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide excluding North and South America, China, Hong Kong, Taiwan, Japan,
-Singapore, Israel, UAE, Russia, Switzerland, and United Kingdom</t>
+    <t xml:space="preserve">Worldwide excluding North and South America, China, Hong Kong, Taiwan, Japan, Singapore, Israel, UAE, Russia, Switzerland, and United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">Network Details</t>
   </si>
   <si>
-    <t xml:space="preserve">No network restriction 
-*40% co-pay applicable at selected hospitals in Indonesia, Thailand, Vietnam, Philippines, India and France</t>
+    <t xml:space="preserve">No network restriction *40% co-pay applicable at selected hospitals in Indonesia, Thailand, Vietnam, Philippines, India and France</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -233,13 +231,10 @@
     <t xml:space="preserve">Area of cover</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide Excluding North and South America, China, Hong Kong, Taiwan, Japan, Singapore, Israel, UAE, Russia, Switzerland, and United Kingdom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Copays</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 100</t>
+    <t xml:space="preserve">IP-USD 100 deductible/OP-USD 10 co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">In-patient only</t>
@@ -546,11 +541,11 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="83.36"/>
@@ -579,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -590,7 +585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,10 +1085,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
